--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="highway_bridges" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="154">
   <si>
     <t>county</t>
   </si>
@@ -431,13 +432,64 @@
   </si>
   <si>
     <t>Source: Minnesota Department of Transportation</t>
+  </si>
+  <si>
+    <t>highway_bridges</t>
+  </si>
+  <si>
+    <t>Minnesota county</t>
+  </si>
+  <si>
+    <t>Bridge number</t>
+  </si>
+  <si>
+    <t>Road or highway</t>
+  </si>
+  <si>
+    <t>Intersection</t>
+  </si>
+  <si>
+    <t>Data year</t>
+  </si>
+  <si>
+    <t>Vehicles on bridge</t>
+  </si>
+  <si>
+    <t>Vehicles on trunk highway</t>
+  </si>
+  <si>
+    <t>Type of deficiency (S.D. = structurally deficient)</t>
+  </si>
+  <si>
+    <t>Percent structurally deficient</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>Bridge status (OPEN, LOAD POSTED)</t>
+  </si>
+  <si>
+    <t>Last inspected</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -445,6 +497,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -465,18 +535,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -808,7 +883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P237"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -6514,6 +6591,7 @@
     <mergeCell ref="C80:D80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6526,7 +6604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6540,6 +6618,159 @@
     <row r="2" spans="1:1">
       <c r="A2">
         <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
